--- a/outputs-HGR-r202/g__CAG-279.xlsx
+++ b/outputs-HGR-r202/g__CAG-279.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,32 +494,32 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24184.fa</t>
+          <t>even_MAG-GUT10734.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9260161172820548</v>
+        <v>0.8766946187318785</v>
       </c>
       <c r="C2" t="n">
-        <v>1.124779447008015e-05</v>
+        <v>2.094222035823104e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>6.589076529112764e-06</v>
+        <v>4.512242654097081e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04526489612639908</v>
+        <v>0.02705398677810287</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02601200232983995</v>
+        <v>0.09279522335202267</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0006470480986724033</v>
+        <v>0.001639857876655568</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002042099292034495</v>
+        <v>0.001770981412595767</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9260161172820548</v>
+        <v>0.8766946187318785</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -535,32 +535,32 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32343.fa</t>
+          <t>even_MAG-GUT24184.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8908346555982822</v>
+        <v>0.9260161172820548</v>
       </c>
       <c r="C3" t="n">
-        <v>4.901243107953272e-07</v>
+        <v>1.124779447008015e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>5.566053163298112e-05</v>
+        <v>6.589076529112764e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07161479432130757</v>
+        <v>0.04526489612639908</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02469399001471329</v>
+        <v>0.02601200232983995</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01180582532643299</v>
+        <v>0.0006470480986724033</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009945840833202296</v>
+        <v>0.002042099292034495</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8908346555982822</v>
+        <v>0.9260161172820548</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -576,41 +576,123 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT32343.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8908346555982822</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.901243107953272e-07</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.566053163298112e-05</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.07161479432130757</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02469399001471329</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01180582532643299</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0009945840833202296</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8908346555982822</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>s__CAG-279 sp000437795</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>s__CAG-279 sp000437795</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT4600.fa</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>0.8546810599595418</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1.304398856583218e-06</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.0001103871438710932</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>0.07482831798706731</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>0.06243950521976415</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>0.003554753015585301</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>0.004384672275313808</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>0.8546810599595418</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>s__CAG-279 sp000437795</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>s__CAG-279 sp000437795</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT78923.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0074843090015041</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1013430148094069</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0001150173233140029</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5293228761017419</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3611964937468974</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.137474082092671e-05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0004669142763148624</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5293228761017419</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s__CAG-279 sp900544305</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>s__CAG-279 sp900544305</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__CAG-279.xlsx
+++ b/outputs-HGR-r202/g__CAG-279.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,11 @@
           <t>s__CAG-279 sp000437795</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>s__CAG-279 sp000437795</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -557,6 +567,11 @@
           <t>s__CAG-279 sp000437795</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>s__CAG-279 sp000437795</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -593,6 +608,11 @@
           <t>s__CAG-279 sp900548875</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>s__CAG-279 sp900548875</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -629,6 +649,11 @@
           <t>s__CAG-279 sp000437795</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>s__CAG-279 sp000437795</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -665,6 +690,11 @@
           <t>s__CAG-279 sp900548875</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>s__CAG-279 sp900548875</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -701,6 +731,11 @@
           <t>s__CAG-279 sp000437795</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>s__CAG-279 sp000437795</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -733,6 +768,11 @@
         <v>0.5293228761017419</v>
       </c>
       <c r="J8" t="inlineStr">
+        <is>
+          <t>s__CAG-279 sp900544305</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>s__CAG-279 sp900544305</t>
         </is>
